--- a/src/com/uat/xls/Users.xlsx
+++ b/src/com/uat/xls/Users.xlsx
@@ -652,7 +652,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
